--- a/result_exp_a_j_vary_d.xlsx
+++ b/result_exp_a_j_vary_d.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hxc/Google/projects/sigmod-results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958B9F45-6BA7-B048-83E2-03289DB58BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7FC8C4C-1116-D54E-8480-A8D78EC59BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4500" yWindow="500" windowWidth="29400" windowHeight="17360" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3240" windowWidth="37200" windowHeight="17360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ΔΩ &lt; 0, Δ𝜎 &gt; 0, Δ𝛿 &gt; 0" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4731" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4679" uniqueCount="52">
   <si>
     <t>dataset name</t>
   </si>
@@ -217,7 +217,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -565,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2656,11 +2656,11 @@
       <c r="E25">
         <v>0</v>
       </c>
-      <c r="F25" t="s">
-        <v>34</v>
-      </c>
-      <c r="G25" t="s">
-        <v>34</v>
+      <c r="F25">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G25">
+        <v>0.7</v>
       </c>
       <c r="H25" t="s">
         <v>34</v>
@@ -2742,11 +2742,11 @@
       <c r="E26" t="s">
         <v>34</v>
       </c>
-      <c r="F26" t="s">
-        <v>34</v>
-      </c>
-      <c r="G26" t="s">
-        <v>34</v>
+      <c r="F26">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G26">
+        <v>0.7</v>
       </c>
       <c r="H26">
         <v>1.0000000000000001E-5</v>
@@ -2757,8 +2757,8 @@
       <c r="J26" t="s">
         <v>31</v>
       </c>
-      <c r="K26" t="s">
-        <v>34</v>
+      <c r="K26">
+        <v>0.9</v>
       </c>
       <c r="L26">
         <v>0.85</v>
@@ -2828,11 +2828,11 @@
       <c r="E27" t="s">
         <v>34</v>
       </c>
-      <c r="F27" t="s">
-        <v>34</v>
-      </c>
-      <c r="G27" t="s">
-        <v>34</v>
+      <c r="F27">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G27">
+        <v>0.7</v>
       </c>
       <c r="H27" t="s">
         <v>34</v>
@@ -2843,8 +2843,8 @@
       <c r="J27" t="s">
         <v>35</v>
       </c>
-      <c r="K27" t="s">
-        <v>34</v>
+      <c r="K27">
+        <v>0.9</v>
       </c>
       <c r="L27">
         <v>0.85</v>
@@ -2914,11 +2914,11 @@
       <c r="E28" t="s">
         <v>34</v>
       </c>
-      <c r="F28" t="s">
-        <v>34</v>
-      </c>
-      <c r="G28" t="s">
-        <v>34</v>
+      <c r="F28">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G28">
+        <v>0.7</v>
       </c>
       <c r="H28">
         <v>1E-4</v>
@@ -2929,8 +2929,8 @@
       <c r="J28" t="s">
         <v>31</v>
       </c>
-      <c r="K28" t="s">
-        <v>34</v>
+      <c r="K28">
+        <v>0.9</v>
       </c>
       <c r="L28">
         <v>0.8</v>
@@ -3000,11 +3000,11 @@
       <c r="E29" t="s">
         <v>34</v>
       </c>
-      <c r="F29" t="s">
-        <v>34</v>
-      </c>
-      <c r="G29" t="s">
-        <v>34</v>
+      <c r="F29">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G29">
+        <v>0.7</v>
       </c>
       <c r="H29" t="s">
         <v>34</v>
@@ -3015,8 +3015,8 @@
       <c r="J29" t="s">
         <v>35</v>
       </c>
-      <c r="K29" t="s">
-        <v>34</v>
+      <c r="K29">
+        <v>0.9</v>
       </c>
       <c r="L29">
         <v>0.8</v>
@@ -3086,11 +3086,11 @@
       <c r="E30" t="s">
         <v>34</v>
       </c>
-      <c r="F30" t="s">
-        <v>34</v>
-      </c>
-      <c r="G30" t="s">
-        <v>34</v>
+      <c r="F30">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G30">
+        <v>0.7</v>
       </c>
       <c r="H30">
         <v>1E-3</v>
@@ -3101,8 +3101,8 @@
       <c r="J30" t="s">
         <v>31</v>
       </c>
-      <c r="K30" t="s">
-        <v>34</v>
+      <c r="K30">
+        <v>0.9</v>
       </c>
       <c r="L30">
         <v>0.75</v>
@@ -3172,11 +3172,11 @@
       <c r="E31" t="s">
         <v>34</v>
       </c>
-      <c r="F31" t="s">
-        <v>34</v>
-      </c>
-      <c r="G31" t="s">
-        <v>34</v>
+      <c r="F31">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G31">
+        <v>0.7</v>
       </c>
       <c r="H31" t="s">
         <v>34</v>
@@ -3187,8 +3187,8 @@
       <c r="J31" t="s">
         <v>35</v>
       </c>
-      <c r="K31" t="s">
-        <v>34</v>
+      <c r="K31">
+        <v>0.9</v>
       </c>
       <c r="L31">
         <v>0.75</v>
@@ -3258,11 +3258,11 @@
       <c r="E32" t="s">
         <v>34</v>
       </c>
-      <c r="F32" t="s">
-        <v>34</v>
-      </c>
-      <c r="G32" t="s">
-        <v>34</v>
+      <c r="F32">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G32">
+        <v>0.7</v>
       </c>
       <c r="H32">
         <v>0.01</v>
@@ -3273,8 +3273,8 @@
       <c r="J32" t="s">
         <v>31</v>
       </c>
-      <c r="K32" t="s">
-        <v>34</v>
+      <c r="K32">
+        <v>0.9</v>
       </c>
       <c r="L32">
         <v>0.7</v>
@@ -3344,11 +3344,11 @@
       <c r="E33" t="s">
         <v>34</v>
       </c>
-      <c r="F33" t="s">
-        <v>34</v>
-      </c>
-      <c r="G33" t="s">
-        <v>34</v>
+      <c r="F33">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G33">
+        <v>0.7</v>
       </c>
       <c r="H33" t="s">
         <v>34</v>
@@ -3359,8 +3359,8 @@
       <c r="J33" t="s">
         <v>35</v>
       </c>
-      <c r="K33" t="s">
-        <v>34</v>
+      <c r="K33">
+        <v>0.9</v>
       </c>
       <c r="L33">
         <v>0.7</v>
@@ -9016,7 +9016,7 @@
   <dimension ref="A1:AB33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+      <selection activeCell="K25" sqref="K25:K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11107,11 +11107,11 @@
       <c r="E25">
         <v>0</v>
       </c>
-      <c r="F25" t="s">
-        <v>34</v>
-      </c>
-      <c r="G25" t="s">
-        <v>34</v>
+      <c r="F25">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G25">
+        <v>0.7</v>
       </c>
       <c r="H25" t="s">
         <v>34</v>
@@ -11193,11 +11193,11 @@
       <c r="E26" t="s">
         <v>34</v>
       </c>
-      <c r="F26" t="s">
-        <v>34</v>
-      </c>
-      <c r="G26" t="s">
-        <v>34</v>
+      <c r="F26">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G26">
+        <v>0.7</v>
       </c>
       <c r="H26">
         <v>9.9999999999999995E-7</v>
@@ -11208,8 +11208,8 @@
       <c r="J26" t="s">
         <v>31</v>
       </c>
-      <c r="K26" t="s">
-        <v>34</v>
+      <c r="K26">
+        <v>0.9</v>
       </c>
       <c r="L26">
         <v>0.85</v>
@@ -11279,11 +11279,11 @@
       <c r="E27" t="s">
         <v>34</v>
       </c>
-      <c r="F27" t="s">
-        <v>34</v>
-      </c>
-      <c r="G27" t="s">
-        <v>34</v>
+      <c r="F27">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G27">
+        <v>0.7</v>
       </c>
       <c r="H27" t="s">
         <v>34</v>
@@ -11294,8 +11294,8 @@
       <c r="J27" t="s">
         <v>35</v>
       </c>
-      <c r="K27" t="s">
-        <v>34</v>
+      <c r="K27">
+        <v>0.9</v>
       </c>
       <c r="L27">
         <v>0.85</v>
@@ -11365,11 +11365,11 @@
       <c r="E28" t="s">
         <v>34</v>
       </c>
-      <c r="F28" t="s">
-        <v>34</v>
-      </c>
-      <c r="G28" t="s">
-        <v>34</v>
+      <c r="F28">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G28">
+        <v>0.7</v>
       </c>
       <c r="H28">
         <v>9.9999999999999995E-7</v>
@@ -11380,8 +11380,8 @@
       <c r="J28" t="s">
         <v>31</v>
       </c>
-      <c r="K28" t="s">
-        <v>34</v>
+      <c r="K28">
+        <v>0.9</v>
       </c>
       <c r="L28">
         <v>0.8</v>
@@ -11451,11 +11451,11 @@
       <c r="E29" t="s">
         <v>34</v>
       </c>
-      <c r="F29" t="s">
-        <v>34</v>
-      </c>
-      <c r="G29" t="s">
-        <v>34</v>
+      <c r="F29">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G29">
+        <v>0.7</v>
       </c>
       <c r="H29" t="s">
         <v>34</v>
@@ -11466,8 +11466,8 @@
       <c r="J29" t="s">
         <v>35</v>
       </c>
-      <c r="K29" t="s">
-        <v>34</v>
+      <c r="K29">
+        <v>0.9</v>
       </c>
       <c r="L29">
         <v>0.8</v>
@@ -11537,11 +11537,11 @@
       <c r="E30" t="s">
         <v>34</v>
       </c>
-      <c r="F30" t="s">
-        <v>34</v>
-      </c>
-      <c r="G30" t="s">
-        <v>34</v>
+      <c r="F30">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G30">
+        <v>0.7</v>
       </c>
       <c r="H30">
         <v>9.9999999999999995E-7</v>
@@ -11552,8 +11552,8 @@
       <c r="J30" t="s">
         <v>31</v>
       </c>
-      <c r="K30" t="s">
-        <v>34</v>
+      <c r="K30">
+        <v>0.9</v>
       </c>
       <c r="L30">
         <v>0.75</v>
@@ -11623,11 +11623,11 @@
       <c r="E31" t="s">
         <v>34</v>
       </c>
-      <c r="F31" t="s">
-        <v>34</v>
-      </c>
-      <c r="G31" t="s">
-        <v>34</v>
+      <c r="F31">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G31">
+        <v>0.7</v>
       </c>
       <c r="H31" t="s">
         <v>34</v>
@@ -11638,8 +11638,8 @@
       <c r="J31" t="s">
         <v>35</v>
       </c>
-      <c r="K31" t="s">
-        <v>34</v>
+      <c r="K31">
+        <v>0.9</v>
       </c>
       <c r="L31">
         <v>0.75</v>
@@ -11709,11 +11709,11 @@
       <c r="E32" t="s">
         <v>34</v>
       </c>
-      <c r="F32" t="s">
-        <v>34</v>
-      </c>
-      <c r="G32" t="s">
-        <v>34</v>
+      <c r="F32">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G32">
+        <v>0.7</v>
       </c>
       <c r="H32">
         <v>9.9999999999999995E-7</v>
@@ -11724,8 +11724,8 @@
       <c r="J32" t="s">
         <v>31</v>
       </c>
-      <c r="K32" t="s">
-        <v>34</v>
+      <c r="K32">
+        <v>0.9</v>
       </c>
       <c r="L32">
         <v>0.7</v>
@@ -11795,11 +11795,11 @@
       <c r="E33" t="s">
         <v>34</v>
       </c>
-      <c r="F33" t="s">
-        <v>34</v>
-      </c>
-      <c r="G33" t="s">
-        <v>34</v>
+      <c r="F33">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G33">
+        <v>0.7</v>
       </c>
       <c r="H33" t="s">
         <v>34</v>
@@ -11810,8 +11810,8 @@
       <c r="J33" t="s">
         <v>35</v>
       </c>
-      <c r="K33" t="s">
-        <v>34</v>
+      <c r="K33">
+        <v>0.9</v>
       </c>
       <c r="L33">
         <v>0.7</v>
@@ -11874,7 +11874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AB33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K25" sqref="K25:K33"/>
     </sheetView>
   </sheetViews>
@@ -23305,8 +23305,1495 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AB17"/>
   <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="9.6640625"/>
+    <col min="8" max="8" width="9.6640625"/>
+    <col min="12" max="12" width="16" customWidth="1"/>
+    <col min="13" max="13" width="22.1640625" customWidth="1"/>
+    <col min="18" max="18" width="14.1640625" customWidth="1"/>
+    <col min="20" max="20" width="6" customWidth="1"/>
+    <col min="24" max="26" width="12.83203125"/>
+    <col min="28" max="28" width="11.83203125"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G2">
+        <v>0.7</v>
+      </c>
+      <c r="H2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I2">
+        <v>0.7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2">
+        <v>0.7</v>
+      </c>
+      <c r="L2">
+        <v>0.75</v>
+      </c>
+      <c r="M2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2">
+        <v>20</v>
+      </c>
+      <c r="R2">
+        <v>821</v>
+      </c>
+      <c r="S2">
+        <v>205</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>2342</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>1005389</v>
+      </c>
+      <c r="X2">
+        <v>22.5589294433594</v>
+      </c>
+      <c r="Y2">
+        <v>21.587605476379402</v>
+      </c>
+      <c r="Z2">
+        <v>0.91486644744873002</v>
+      </c>
+      <c r="AA2">
+        <v>28</v>
+      </c>
+      <c r="AB2">
+        <v>5.645751953125E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G3">
+        <v>0.7</v>
+      </c>
+      <c r="H3">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I3">
+        <v>0.7</v>
+      </c>
+      <c r="J3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3">
+        <v>0.7</v>
+      </c>
+      <c r="L3">
+        <v>0.8</v>
+      </c>
+      <c r="M3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q3">
+        <v>20</v>
+      </c>
+      <c r="R3">
+        <v>926</v>
+      </c>
+      <c r="S3">
+        <v>206</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>2342</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>1005390</v>
+      </c>
+      <c r="X3">
+        <v>22.561155319213899</v>
+      </c>
+      <c r="Y3">
+        <v>21.587605476379402</v>
+      </c>
+      <c r="Z3">
+        <v>0.91709232330322299</v>
+      </c>
+      <c r="AA3">
+        <v>28</v>
+      </c>
+      <c r="AB3">
+        <v>5.645751953125E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G4">
+        <v>0.7</v>
+      </c>
+      <c r="H4">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I4">
+        <v>0.7</v>
+      </c>
+      <c r="J4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4">
+        <v>0.7</v>
+      </c>
+      <c r="L4">
+        <v>0.85</v>
+      </c>
+      <c r="M4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q4">
+        <v>20</v>
+      </c>
+      <c r="R4">
+        <v>1547</v>
+      </c>
+      <c r="S4">
+        <v>207</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>2342</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>1005391</v>
+      </c>
+      <c r="X4">
+        <v>22.5633869171143</v>
+      </c>
+      <c r="Y4">
+        <v>21.587605476379402</v>
+      </c>
+      <c r="Z4">
+        <v>0.91932392120361295</v>
+      </c>
+      <c r="AA4">
+        <v>28</v>
+      </c>
+      <c r="AB4">
+        <v>5.645751953125E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G5">
+        <v>0.7</v>
+      </c>
+      <c r="H5">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I5">
+        <v>0.7</v>
+      </c>
+      <c r="J5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5">
+        <v>0.7</v>
+      </c>
+      <c r="L5">
+        <v>0.9</v>
+      </c>
+      <c r="M5" t="s">
+        <v>43</v>
+      </c>
+      <c r="N5" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" t="s">
+        <v>31</v>
+      </c>
+      <c r="P5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q5">
+        <v>20</v>
+      </c>
+      <c r="R5">
+        <v>2518</v>
+      </c>
+      <c r="S5">
+        <v>227</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>2342</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>1005392</v>
+      </c>
+      <c r="X5">
+        <v>22.6062364578247</v>
+      </c>
+      <c r="Y5">
+        <v>21.587605476379402</v>
+      </c>
+      <c r="Z5">
+        <v>0.96217346191406194</v>
+      </c>
+      <c r="AA5">
+        <v>28</v>
+      </c>
+      <c r="AB5">
+        <v>5.645751953125E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G6">
+        <v>0.7</v>
+      </c>
+      <c r="H6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I6">
+        <v>0.7</v>
+      </c>
+      <c r="J6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6">
+        <v>0.7</v>
+      </c>
+      <c r="L6">
+        <v>0.75</v>
+      </c>
+      <c r="M6" t="s">
+        <v>38</v>
+      </c>
+      <c r="N6" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q6">
+        <v>20</v>
+      </c>
+      <c r="R6">
+        <v>521052</v>
+      </c>
+      <c r="S6">
+        <v>230</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>1005393</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G7">
+        <v>0.7</v>
+      </c>
+      <c r="H7">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I7">
+        <v>0.7</v>
+      </c>
+      <c r="J7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7">
+        <v>0.7</v>
+      </c>
+      <c r="L7">
+        <v>0.8</v>
+      </c>
+      <c r="M7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N7" t="s">
+        <v>46</v>
+      </c>
+      <c r="O7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q7">
+        <v>20</v>
+      </c>
+      <c r="R7">
+        <v>534291</v>
+      </c>
+      <c r="S7">
+        <v>261</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>1005394</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G8">
+        <v>0.7</v>
+      </c>
+      <c r="H8">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I8">
+        <v>0.7</v>
+      </c>
+      <c r="J8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8">
+        <v>0.7</v>
+      </c>
+      <c r="L8">
+        <v>0.85</v>
+      </c>
+      <c r="M8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N8" t="s">
+        <v>46</v>
+      </c>
+      <c r="O8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q8">
+        <v>20</v>
+      </c>
+      <c r="R8">
+        <v>538020</v>
+      </c>
+      <c r="S8">
+        <v>286</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>1005395</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G9">
+        <v>0.7</v>
+      </c>
+      <c r="H9">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I9">
+        <v>0.7</v>
+      </c>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9">
+        <v>0.7</v>
+      </c>
+      <c r="L9">
+        <v>0.9</v>
+      </c>
+      <c r="M9" t="s">
+        <v>43</v>
+      </c>
+      <c r="N9" t="s">
+        <v>46</v>
+      </c>
+      <c r="O9" t="s">
+        <v>31</v>
+      </c>
+      <c r="P9" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q9">
+        <v>20</v>
+      </c>
+      <c r="R9">
+        <v>508372</v>
+      </c>
+      <c r="S9">
+        <v>305</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>1005396</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G10">
+        <v>0.7</v>
+      </c>
+      <c r="H10">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I10">
+        <v>0.7</v>
+      </c>
+      <c r="J10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10">
+        <v>0.7</v>
+      </c>
+      <c r="L10">
+        <v>0.75</v>
+      </c>
+      <c r="M10" t="s">
+        <v>38</v>
+      </c>
+      <c r="N10" t="s">
+        <v>46</v>
+      </c>
+      <c r="O10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q10">
+        <v>20</v>
+      </c>
+      <c r="R10">
+        <v>17610</v>
+      </c>
+      <c r="S10">
+        <v>230</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>2342</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>1005397</v>
+      </c>
+      <c r="X10">
+        <v>22.610378265380898</v>
+      </c>
+      <c r="Y10">
+        <v>21.587605476379402</v>
+      </c>
+      <c r="Z10">
+        <v>0.96631526947021495</v>
+      </c>
+      <c r="AA10">
+        <v>28</v>
+      </c>
+      <c r="AB10">
+        <v>5.645751953125E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G11">
+        <v>0.7</v>
+      </c>
+      <c r="H11">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I11">
+        <v>0.7</v>
+      </c>
+      <c r="J11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11">
+        <v>0.7</v>
+      </c>
+      <c r="L11">
+        <v>0.8</v>
+      </c>
+      <c r="M11" t="s">
+        <v>37</v>
+      </c>
+      <c r="N11" t="s">
+        <v>46</v>
+      </c>
+      <c r="O11" t="s">
+        <v>31</v>
+      </c>
+      <c r="P11" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q11">
+        <v>20</v>
+      </c>
+      <c r="R11">
+        <v>29689</v>
+      </c>
+      <c r="S11">
+        <v>261</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>2342</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>1005398</v>
+      </c>
+      <c r="X11">
+        <v>22.675348281860401</v>
+      </c>
+      <c r="Y11">
+        <v>21.587605476379402</v>
+      </c>
+      <c r="Z11">
+        <v>1.0312852859497099</v>
+      </c>
+      <c r="AA11">
+        <v>28</v>
+      </c>
+      <c r="AB11">
+        <v>5.645751953125E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G12">
+        <v>0.7</v>
+      </c>
+      <c r="H12">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I12">
+        <v>0.7</v>
+      </c>
+      <c r="J12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12">
+        <v>0.7</v>
+      </c>
+      <c r="L12">
+        <v>0.85</v>
+      </c>
+      <c r="M12" t="s">
+        <v>32</v>
+      </c>
+      <c r="N12" t="s">
+        <v>46</v>
+      </c>
+      <c r="O12" t="s">
+        <v>31</v>
+      </c>
+      <c r="P12" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q12">
+        <v>20</v>
+      </c>
+      <c r="R12">
+        <v>44541</v>
+      </c>
+      <c r="S12">
+        <v>286</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>2342</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>1005399</v>
+      </c>
+      <c r="X12">
+        <v>22.713976860046401</v>
+      </c>
+      <c r="Y12">
+        <v>21.587605476379402</v>
+      </c>
+      <c r="Z12">
+        <v>1.06991386413574</v>
+      </c>
+      <c r="AA12">
+        <v>28</v>
+      </c>
+      <c r="AB12">
+        <v>5.645751953125E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G13">
+        <v>0.7</v>
+      </c>
+      <c r="H13">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I13">
+        <v>0.7</v>
+      </c>
+      <c r="J13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13">
+        <v>0.7</v>
+      </c>
+      <c r="L13">
+        <v>0.9</v>
+      </c>
+      <c r="M13" t="s">
+        <v>43</v>
+      </c>
+      <c r="N13" t="s">
+        <v>46</v>
+      </c>
+      <c r="O13" t="s">
+        <v>31</v>
+      </c>
+      <c r="P13" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q13">
+        <v>20</v>
+      </c>
+      <c r="R13">
+        <v>49630</v>
+      </c>
+      <c r="S13">
+        <v>305</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>2342</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>1005400</v>
+      </c>
+      <c r="X13">
+        <v>22.733557701110801</v>
+      </c>
+      <c r="Y13">
+        <v>21.587605476379402</v>
+      </c>
+      <c r="Z13">
+        <v>1.0894947052002</v>
+      </c>
+      <c r="AA13">
+        <v>28</v>
+      </c>
+      <c r="AB13">
+        <v>5.645751953125E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G14">
+        <v>0.7</v>
+      </c>
+      <c r="H14">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I14">
+        <v>0.7</v>
+      </c>
+      <c r="J14" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14">
+        <v>0.7</v>
+      </c>
+      <c r="L14">
+        <v>0.75</v>
+      </c>
+      <c r="M14" t="s">
+        <v>38</v>
+      </c>
+      <c r="N14" t="s">
+        <v>46</v>
+      </c>
+      <c r="O14" t="s">
+        <v>31</v>
+      </c>
+      <c r="P14" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q14">
+        <v>20</v>
+      </c>
+      <c r="R14">
+        <v>522730</v>
+      </c>
+      <c r="S14">
+        <v>230</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>1005401</v>
+      </c>
+      <c r="X14">
+        <v>59.574673652648897</v>
+      </c>
+      <c r="Y14">
+        <v>7.2453346252441397</v>
+      </c>
+      <c r="Z14">
+        <v>0.98047637939453103</v>
+      </c>
+      <c r="AA14">
+        <v>13207</v>
+      </c>
+      <c r="AB14">
+        <v>51.348862648010197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G15">
+        <v>0.7</v>
+      </c>
+      <c r="H15">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I15">
+        <v>0.7</v>
+      </c>
+      <c r="J15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15">
+        <v>0.7</v>
+      </c>
+      <c r="L15">
+        <v>0.8</v>
+      </c>
+      <c r="M15" t="s">
+        <v>37</v>
+      </c>
+      <c r="N15" t="s">
+        <v>46</v>
+      </c>
+      <c r="O15" t="s">
+        <v>31</v>
+      </c>
+      <c r="P15" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q15">
+        <v>20</v>
+      </c>
+      <c r="R15">
+        <v>534740</v>
+      </c>
+      <c r="S15">
+        <v>261</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>1005402</v>
+      </c>
+      <c r="X15">
+        <v>59.688268661499002</v>
+      </c>
+      <c r="Y15">
+        <v>7.2453346252441397</v>
+      </c>
+      <c r="Z15">
+        <v>1.0945119857788099</v>
+      </c>
+      <c r="AA15">
+        <v>13207</v>
+      </c>
+      <c r="AB15">
+        <v>51.348422050476103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G16">
+        <v>0.7</v>
+      </c>
+      <c r="H16">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I16">
+        <v>0.7</v>
+      </c>
+      <c r="J16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K16">
+        <v>0.7</v>
+      </c>
+      <c r="L16">
+        <v>0.85</v>
+      </c>
+      <c r="M16" t="s">
+        <v>32</v>
+      </c>
+      <c r="N16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O16" t="s">
+        <v>31</v>
+      </c>
+      <c r="P16" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q16">
+        <v>20</v>
+      </c>
+      <c r="R16">
+        <v>533585</v>
+      </c>
+      <c r="S16">
+        <v>286</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>1005403</v>
+      </c>
+      <c r="X16">
+        <v>59.821005821227999</v>
+      </c>
+      <c r="Y16">
+        <v>7.2453346252441397</v>
+      </c>
+      <c r="Z16">
+        <v>1.2405261993408201</v>
+      </c>
+      <c r="AA16">
+        <v>13204</v>
+      </c>
+      <c r="AB16">
+        <v>51.335144996643102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G17">
+        <v>0.7</v>
+      </c>
+      <c r="H17">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I17">
+        <v>0.7</v>
+      </c>
+      <c r="J17" t="s">
+        <v>31</v>
+      </c>
+      <c r="K17">
+        <v>0.7</v>
+      </c>
+      <c r="L17">
+        <v>0.9</v>
+      </c>
+      <c r="M17" t="s">
+        <v>43</v>
+      </c>
+      <c r="N17" t="s">
+        <v>46</v>
+      </c>
+      <c r="O17" t="s">
+        <v>31</v>
+      </c>
+      <c r="P17" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q17">
+        <v>20</v>
+      </c>
+      <c r="R17">
+        <v>507422</v>
+      </c>
+      <c r="S17">
+        <v>305</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>1005404</v>
+      </c>
+      <c r="X17">
+        <v>59.907618522644</v>
+      </c>
+      <c r="Y17">
+        <v>7.2453346252441397</v>
+      </c>
+      <c r="Z17">
+        <v>1.3041410446167001</v>
+      </c>
+      <c r="AA17">
+        <v>13208</v>
+      </c>
+      <c r="AB17">
+        <v>51.358142852783203</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:AB17"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13:K17"/>
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -23435,1489 +24922,6 @@
         <v>31</v>
       </c>
       <c r="K2">
-        <v>0.7</v>
-      </c>
-      <c r="L2">
-        <v>0.75</v>
-      </c>
-      <c r="M2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N2" t="s">
-        <v>46</v>
-      </c>
-      <c r="O2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q2">
-        <v>20</v>
-      </c>
-      <c r="R2">
-        <v>821</v>
-      </c>
-      <c r="S2">
-        <v>205</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>2342</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>1005389</v>
-      </c>
-      <c r="X2">
-        <v>22.5589294433594</v>
-      </c>
-      <c r="Y2">
-        <v>21.587605476379402</v>
-      </c>
-      <c r="Z2">
-        <v>0.91486644744873002</v>
-      </c>
-      <c r="AA2">
-        <v>28</v>
-      </c>
-      <c r="AB2">
-        <v>5.645751953125E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="G3">
-        <v>0.7</v>
-      </c>
-      <c r="H3">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="I3">
-        <v>0.7</v>
-      </c>
-      <c r="J3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3">
-        <v>0.7</v>
-      </c>
-      <c r="L3">
-        <v>0.8</v>
-      </c>
-      <c r="M3" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O3" t="s">
-        <v>31</v>
-      </c>
-      <c r="P3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q3">
-        <v>20</v>
-      </c>
-      <c r="R3">
-        <v>926</v>
-      </c>
-      <c r="S3">
-        <v>206</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>2342</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>1005390</v>
-      </c>
-      <c r="X3">
-        <v>22.561155319213899</v>
-      </c>
-      <c r="Y3">
-        <v>21.587605476379402</v>
-      </c>
-      <c r="Z3">
-        <v>0.91709232330322299</v>
-      </c>
-      <c r="AA3">
-        <v>28</v>
-      </c>
-      <c r="AB3">
-        <v>5.645751953125E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="G4">
-        <v>0.7</v>
-      </c>
-      <c r="H4">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="I4">
-        <v>0.7</v>
-      </c>
-      <c r="J4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4">
-        <v>0.7</v>
-      </c>
-      <c r="L4">
-        <v>0.85</v>
-      </c>
-      <c r="M4" t="s">
-        <v>32</v>
-      </c>
-      <c r="N4" t="s">
-        <v>46</v>
-      </c>
-      <c r="O4" t="s">
-        <v>31</v>
-      </c>
-      <c r="P4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q4">
-        <v>20</v>
-      </c>
-      <c r="R4">
-        <v>1547</v>
-      </c>
-      <c r="S4">
-        <v>207</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>2342</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>1005391</v>
-      </c>
-      <c r="X4">
-        <v>22.5633869171143</v>
-      </c>
-      <c r="Y4">
-        <v>21.587605476379402</v>
-      </c>
-      <c r="Z4">
-        <v>0.91932392120361295</v>
-      </c>
-      <c r="AA4">
-        <v>28</v>
-      </c>
-      <c r="AB4">
-        <v>5.645751953125E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="G5">
-        <v>0.7</v>
-      </c>
-      <c r="H5">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="I5">
-        <v>0.7</v>
-      </c>
-      <c r="J5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5">
-        <v>0.7</v>
-      </c>
-      <c r="L5">
-        <v>0.9</v>
-      </c>
-      <c r="M5" t="s">
-        <v>43</v>
-      </c>
-      <c r="N5" t="s">
-        <v>46</v>
-      </c>
-      <c r="O5" t="s">
-        <v>31</v>
-      </c>
-      <c r="P5" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q5">
-        <v>20</v>
-      </c>
-      <c r="R5">
-        <v>2518</v>
-      </c>
-      <c r="S5">
-        <v>227</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>2342</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>1005392</v>
-      </c>
-      <c r="X5">
-        <v>22.6062364578247</v>
-      </c>
-      <c r="Y5">
-        <v>21.587605476379402</v>
-      </c>
-      <c r="Z5">
-        <v>0.96217346191406194</v>
-      </c>
-      <c r="AA5">
-        <v>28</v>
-      </c>
-      <c r="AB5">
-        <v>5.645751953125E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="G6">
-        <v>0.7</v>
-      </c>
-      <c r="H6">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="I6">
-        <v>0.7</v>
-      </c>
-      <c r="J6" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6">
-        <v>0.7</v>
-      </c>
-      <c r="L6">
-        <v>0.75</v>
-      </c>
-      <c r="M6" t="s">
-        <v>38</v>
-      </c>
-      <c r="N6" t="s">
-        <v>46</v>
-      </c>
-      <c r="O6" t="s">
-        <v>31</v>
-      </c>
-      <c r="P6" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q6">
-        <v>20</v>
-      </c>
-      <c r="R6">
-        <v>521052</v>
-      </c>
-      <c r="S6">
-        <v>230</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>1005393</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="G7">
-        <v>0.7</v>
-      </c>
-      <c r="H7">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="I7">
-        <v>0.7</v>
-      </c>
-      <c r="J7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7">
-        <v>0.7</v>
-      </c>
-      <c r="L7">
-        <v>0.8</v>
-      </c>
-      <c r="M7" t="s">
-        <v>37</v>
-      </c>
-      <c r="N7" t="s">
-        <v>46</v>
-      </c>
-      <c r="O7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q7">
-        <v>20</v>
-      </c>
-      <c r="R7">
-        <v>534291</v>
-      </c>
-      <c r="S7">
-        <v>261</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>1005394</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8">
-        <v>7</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="G8">
-        <v>0.7</v>
-      </c>
-      <c r="H8">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="I8">
-        <v>0.7</v>
-      </c>
-      <c r="J8" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8">
-        <v>0.7</v>
-      </c>
-      <c r="L8">
-        <v>0.85</v>
-      </c>
-      <c r="M8" t="s">
-        <v>32</v>
-      </c>
-      <c r="N8" t="s">
-        <v>46</v>
-      </c>
-      <c r="O8" t="s">
-        <v>31</v>
-      </c>
-      <c r="P8" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q8">
-        <v>20</v>
-      </c>
-      <c r="R8">
-        <v>538020</v>
-      </c>
-      <c r="S8">
-        <v>286</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>1005395</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9">
-        <v>8</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="G9">
-        <v>0.7</v>
-      </c>
-      <c r="H9">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="I9">
-        <v>0.7</v>
-      </c>
-      <c r="J9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K9">
-        <v>0.7</v>
-      </c>
-      <c r="L9">
-        <v>0.9</v>
-      </c>
-      <c r="M9" t="s">
-        <v>43</v>
-      </c>
-      <c r="N9" t="s">
-        <v>46</v>
-      </c>
-      <c r="O9" t="s">
-        <v>31</v>
-      </c>
-      <c r="P9" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q9">
-        <v>20</v>
-      </c>
-      <c r="R9">
-        <v>508372</v>
-      </c>
-      <c r="S9">
-        <v>305</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>1005396</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10">
-        <v>9</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="G10">
-        <v>0.7</v>
-      </c>
-      <c r="H10">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="I10">
-        <v>0.7</v>
-      </c>
-      <c r="J10" t="s">
-        <v>31</v>
-      </c>
-      <c r="K10">
-        <v>0.7</v>
-      </c>
-      <c r="L10">
-        <v>0.75</v>
-      </c>
-      <c r="M10" t="s">
-        <v>38</v>
-      </c>
-      <c r="N10" t="s">
-        <v>46</v>
-      </c>
-      <c r="O10" t="s">
-        <v>31</v>
-      </c>
-      <c r="P10" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q10">
-        <v>20</v>
-      </c>
-      <c r="R10">
-        <v>17610</v>
-      </c>
-      <c r="S10">
-        <v>230</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>2342</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>1005397</v>
-      </c>
-      <c r="X10">
-        <v>22.610378265380898</v>
-      </c>
-      <c r="Y10">
-        <v>21.587605476379402</v>
-      </c>
-      <c r="Z10">
-        <v>0.96631526947021495</v>
-      </c>
-      <c r="AA10">
-        <v>28</v>
-      </c>
-      <c r="AB10">
-        <v>5.645751953125E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11">
-        <v>10</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="G11">
-        <v>0.7</v>
-      </c>
-      <c r="H11">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="I11">
-        <v>0.7</v>
-      </c>
-      <c r="J11" t="s">
-        <v>31</v>
-      </c>
-      <c r="K11">
-        <v>0.7</v>
-      </c>
-      <c r="L11">
-        <v>0.8</v>
-      </c>
-      <c r="M11" t="s">
-        <v>37</v>
-      </c>
-      <c r="N11" t="s">
-        <v>46</v>
-      </c>
-      <c r="O11" t="s">
-        <v>31</v>
-      </c>
-      <c r="P11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q11">
-        <v>20</v>
-      </c>
-      <c r="R11">
-        <v>29689</v>
-      </c>
-      <c r="S11">
-        <v>261</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>2342</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>1005398</v>
-      </c>
-      <c r="X11">
-        <v>22.675348281860401</v>
-      </c>
-      <c r="Y11">
-        <v>21.587605476379402</v>
-      </c>
-      <c r="Z11">
-        <v>1.0312852859497099</v>
-      </c>
-      <c r="AA11">
-        <v>28</v>
-      </c>
-      <c r="AB11">
-        <v>5.645751953125E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12">
-        <v>11</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="G12">
-        <v>0.7</v>
-      </c>
-      <c r="H12">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="I12">
-        <v>0.7</v>
-      </c>
-      <c r="J12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K12">
-        <v>0.7</v>
-      </c>
-      <c r="L12">
-        <v>0.85</v>
-      </c>
-      <c r="M12" t="s">
-        <v>32</v>
-      </c>
-      <c r="N12" t="s">
-        <v>46</v>
-      </c>
-      <c r="O12" t="s">
-        <v>31</v>
-      </c>
-      <c r="P12" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q12">
-        <v>20</v>
-      </c>
-      <c r="R12">
-        <v>44541</v>
-      </c>
-      <c r="S12">
-        <v>286</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>2342</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>1005399</v>
-      </c>
-      <c r="X12">
-        <v>22.713976860046401</v>
-      </c>
-      <c r="Y12">
-        <v>21.587605476379402</v>
-      </c>
-      <c r="Z12">
-        <v>1.06991386413574</v>
-      </c>
-      <c r="AA12">
-        <v>28</v>
-      </c>
-      <c r="AB12">
-        <v>5.645751953125E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13">
-        <v>12</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="G13">
-        <v>0.7</v>
-      </c>
-      <c r="H13">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="I13">
-        <v>0.7</v>
-      </c>
-      <c r="J13" t="s">
-        <v>31</v>
-      </c>
-      <c r="K13">
-        <v>0.7</v>
-      </c>
-      <c r="L13">
-        <v>0.9</v>
-      </c>
-      <c r="M13" t="s">
-        <v>43</v>
-      </c>
-      <c r="N13" t="s">
-        <v>46</v>
-      </c>
-      <c r="O13" t="s">
-        <v>31</v>
-      </c>
-      <c r="P13" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q13">
-        <v>20</v>
-      </c>
-      <c r="R13">
-        <v>49630</v>
-      </c>
-      <c r="S13">
-        <v>305</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>2342</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>1005400</v>
-      </c>
-      <c r="X13">
-        <v>22.733557701110801</v>
-      </c>
-      <c r="Y13">
-        <v>21.587605476379402</v>
-      </c>
-      <c r="Z13">
-        <v>1.0894947052002</v>
-      </c>
-      <c r="AA13">
-        <v>28</v>
-      </c>
-      <c r="AB13">
-        <v>5.645751953125E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14">
-        <v>13</v>
-      </c>
-      <c r="E14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="G14">
-        <v>0.7</v>
-      </c>
-      <c r="H14">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="I14">
-        <v>0.7</v>
-      </c>
-      <c r="J14" t="s">
-        <v>31</v>
-      </c>
-      <c r="K14">
-        <v>0.7</v>
-      </c>
-      <c r="L14">
-        <v>0.75</v>
-      </c>
-      <c r="M14" t="s">
-        <v>38</v>
-      </c>
-      <c r="N14" t="s">
-        <v>46</v>
-      </c>
-      <c r="O14" t="s">
-        <v>31</v>
-      </c>
-      <c r="P14" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q14">
-        <v>20</v>
-      </c>
-      <c r="R14">
-        <v>522730</v>
-      </c>
-      <c r="S14">
-        <v>230</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <v>1005401</v>
-      </c>
-      <c r="X14">
-        <v>59.574673652648897</v>
-      </c>
-      <c r="Y14">
-        <v>7.2453346252441397</v>
-      </c>
-      <c r="Z14">
-        <v>0.98047637939453103</v>
-      </c>
-      <c r="AA14">
-        <v>13207</v>
-      </c>
-      <c r="AB14">
-        <v>51.348862648010197</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15">
-        <v>14</v>
-      </c>
-      <c r="E15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="G15">
-        <v>0.7</v>
-      </c>
-      <c r="H15">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="I15">
-        <v>0.7</v>
-      </c>
-      <c r="J15" t="s">
-        <v>31</v>
-      </c>
-      <c r="K15">
-        <v>0.7</v>
-      </c>
-      <c r="L15">
-        <v>0.8</v>
-      </c>
-      <c r="M15" t="s">
-        <v>37</v>
-      </c>
-      <c r="N15" t="s">
-        <v>46</v>
-      </c>
-      <c r="O15" t="s">
-        <v>31</v>
-      </c>
-      <c r="P15" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q15">
-        <v>20</v>
-      </c>
-      <c r="R15">
-        <v>534740</v>
-      </c>
-      <c r="S15">
-        <v>261</v>
-      </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>1005402</v>
-      </c>
-      <c r="X15">
-        <v>59.688268661499002</v>
-      </c>
-      <c r="Y15">
-        <v>7.2453346252441397</v>
-      </c>
-      <c r="Z15">
-        <v>1.0945119857788099</v>
-      </c>
-      <c r="AA15">
-        <v>13207</v>
-      </c>
-      <c r="AB15">
-        <v>51.348422050476103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16">
-        <v>15</v>
-      </c>
-      <c r="E16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="G16">
-        <v>0.7</v>
-      </c>
-      <c r="H16">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="I16">
-        <v>0.7</v>
-      </c>
-      <c r="J16" t="s">
-        <v>31</v>
-      </c>
-      <c r="K16">
-        <v>0.7</v>
-      </c>
-      <c r="L16">
-        <v>0.85</v>
-      </c>
-      <c r="M16" t="s">
-        <v>32</v>
-      </c>
-      <c r="N16" t="s">
-        <v>46</v>
-      </c>
-      <c r="O16" t="s">
-        <v>31</v>
-      </c>
-      <c r="P16" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q16">
-        <v>20</v>
-      </c>
-      <c r="R16">
-        <v>533585</v>
-      </c>
-      <c r="S16">
-        <v>286</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>1005403</v>
-      </c>
-      <c r="X16">
-        <v>59.821005821227999</v>
-      </c>
-      <c r="Y16">
-        <v>7.2453346252441397</v>
-      </c>
-      <c r="Z16">
-        <v>1.2405261993408201</v>
-      </c>
-      <c r="AA16">
-        <v>13204</v>
-      </c>
-      <c r="AB16">
-        <v>51.335144996643102</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17">
-        <v>16</v>
-      </c>
-      <c r="E17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="G17">
-        <v>0.7</v>
-      </c>
-      <c r="H17">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="I17">
-        <v>0.7</v>
-      </c>
-      <c r="J17" t="s">
-        <v>31</v>
-      </c>
-      <c r="K17">
-        <v>0.7</v>
-      </c>
-      <c r="L17">
-        <v>0.9</v>
-      </c>
-      <c r="M17" t="s">
-        <v>43</v>
-      </c>
-      <c r="N17" t="s">
-        <v>46</v>
-      </c>
-      <c r="O17" t="s">
-        <v>31</v>
-      </c>
-      <c r="P17" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q17">
-        <v>20</v>
-      </c>
-      <c r="R17">
-        <v>507422</v>
-      </c>
-      <c r="S17">
-        <v>305</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>1005404</v>
-      </c>
-      <c r="X17">
-        <v>59.907618522644</v>
-      </c>
-      <c r="Y17">
-        <v>7.2453346252441397</v>
-      </c>
-      <c r="Z17">
-        <v>1.3041410446167001</v>
-      </c>
-      <c r="AA17">
-        <v>13208</v>
-      </c>
-      <c r="AB17">
-        <v>51.358142852783203</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:AB17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12:K17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="6" max="6" width="9.6640625"/>
-    <col min="8" max="8" width="9.6640625"/>
-    <col min="24" max="26" width="12.83203125"/>
-    <col min="28" max="28" width="11.83203125"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="G2">
-        <v>0.7</v>
-      </c>
-      <c r="H2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="I2">
-        <v>0.7</v>
-      </c>
-      <c r="J2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2">
         <v>0.9</v>
       </c>
       <c r="L2">
@@ -26271,15 +26275,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AB17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1:U1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="6" max="6" width="9.6640625"/>
     <col min="8" max="8" width="9.6640625"/>
-    <col min="24" max="26" width="12.83203125"/>
+    <col min="24" max="25" width="12.83203125"/>
+    <col min="26" max="26" width="26" customWidth="1"/>
+    <col min="27" max="27" width="23" customWidth="1"/>
     <col min="28" max="28" width="12.83203125"/>
   </cols>
   <sheetData>
